--- a/understanding_and_utilizing_test_design_techniques/12_デシジョンテーブル(電話番号バリデーションチェック).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/12_デシジョンテーブル(電話番号バリデーションチェック).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E6B44-2C7A-EF47-8F6F-0EECAE69DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA41BA-B1F9-7C48-A53B-07C936DF9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34020" yWindow="500" windowWidth="33180" windowHeight="21100" xr2:uid="{DB08B66A-C4F8-AC47-BF01-2F8466925CB5}"/>
   </bookViews>
@@ -567,8 +567,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -589,13 +589,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7683500" y="4064000"/>
-          <a:ext cx="2997200" cy="1536700"/>
+          <a:off x="7683500" y="3378200"/>
+          <a:ext cx="2997200" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -76668"/>
-            <a:gd name="adj2" fmla="val 26218"/>
+            <a:gd name="adj1" fmla="val -77515"/>
+            <a:gd name="adj2" fmla="val 33647"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -700,8 +700,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -717,12 +717,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6540500" y="7950200"/>
-          <a:ext cx="2997200" cy="1536700"/>
+          <a:ext cx="2997200" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val -148278"/>
-            <a:gd name="adj2" fmla="val -185352"/>
+            <a:gd name="adj2" fmla="val -141352"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -867,7 +867,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -884,12 +884,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1943100" y="7493000"/>
-          <a:ext cx="3606800" cy="1536700"/>
+          <a:ext cx="3606800" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -52163"/>
-            <a:gd name="adj2" fmla="val -83700"/>
+            <a:gd name="adj1" fmla="val -45473"/>
+            <a:gd name="adj2" fmla="val -70765"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>

--- a/understanding_and_utilizing_test_design_techniques/12_デシジョンテーブル(電話番号バリデーションチェック).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/12_デシジョンテーブル(電話番号バリデーションチェック).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA41BA-B1F9-7C48-A53B-07C936DF9D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9117C1EB-0BFF-8D44-B676-BC4ECE5082FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="500" windowWidth="33180" windowHeight="21100" xr2:uid="{DB08B66A-C4F8-AC47-BF01-2F8466925CB5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{DB08B66A-C4F8-AC47-BF01-2F8466925CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="(解説)デシジョンテーブル作成課題" sheetId="4" r:id="rId1"/>
@@ -37,93 +37,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="35">
-  <si>
-    <t>先頭数字</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">セントウ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">スウジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桁数</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケタスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0以外</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">イガイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
   <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1〜4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5〜9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ケタ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>123456789012</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>001234567890</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件テーブル</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョウケン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>組み合わせテーブル</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">クミアワセ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケッカ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -132,26 +56,6 @@
       <t xml:space="preserve">レイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※FALSEはバリデーションエラー、TRUEは入力成功とする</t>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">セイコウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パターン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2桁目</t>
-  </si>
-  <si>
-    <t>3桁目</t>
   </si>
   <si>
     <t>デシジョンテーブルテスト作成課題</t>
@@ -196,26 +100,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無効桁数</t>
+    <t>0101234567</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>040123456789</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01012345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04012345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先頭数字が0</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セントウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">スウジ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">イガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2桁目が0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2桁目が1~4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2桁目が5~9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3桁目が0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーションエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力成功</t>
     <rPh sb="0" eb="4">
-      <t xml:space="preserve">ムコウケタスウ </t>
+      <t xml:space="preserve">ニュウリョクセイコウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0101234567</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>040123456789</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01012345678</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04012345678</t>
+    <t>※FはFALSE、TはTRUEを意味する</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">イミスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>011123456</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04112345678</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -291,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -313,23 +277,6 @@
         <color indexed="64"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
     </border>
     <border>
       <left/>
@@ -416,13 +363,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -431,52 +375,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,16 +447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -524,13 +471,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6769100" y="2032000"/>
-          <a:ext cx="2857500" cy="1054100"/>
+          <a:off x="1206500" y="1955800"/>
+          <a:ext cx="3213100" cy="1054100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -63654"/>
-            <a:gd name="adj2" fmla="val 83571"/>
+            <a:gd name="adj1" fmla="val -39654"/>
+            <a:gd name="adj2" fmla="val 119716"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -556,7 +503,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>上記のバリデーションロジックに沿って条件テーブは既に作成されています</a:t>
+            <a:t>上記のバリデーションロジックに沿って条件記述部は作成されています</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -565,16 +512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -589,7 +536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7683500" y="3378200"/>
+          <a:off x="12433300" y="2197100"/>
           <a:ext cx="2997200" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -620,69 +567,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>上の条件テーブルに沿って</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>先頭文字であれば</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> or B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>桁目は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>A〜C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>桁目は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>A or B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>桁数は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>A or B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>を組み合わせて入力します</a:t>
+            <a:t>黄色くなっている箇所の穴埋めを完成させることがこの課題のゴールとなります。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -692,16 +578,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -716,13 +602,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6540500" y="7950200"/>
+          <a:off x="4584700" y="1384300"/>
           <a:ext cx="2997200" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -148278"/>
-            <a:gd name="adj2" fmla="val -141352"/>
+            <a:gd name="adj1" fmla="val -108023"/>
+            <a:gd name="adj2" fmla="val 103791"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -752,11 +638,11 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>A</a:t>
+            <a:t>0</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>であれば以降どのような条件であってもバリデーションエラーとなるような場合はハイフンとして省略しても構いません。</a:t>
+            <a:t>であれば以降どのような条件であってもバリデーションエラーとなるような場合はハイフンとして省略します。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -766,16 +652,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -790,13 +676,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883400" y="5753100"/>
+          <a:off x="11074400" y="13093700"/>
           <a:ext cx="3606800" cy="1536700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -90895"/>
-            <a:gd name="adj2" fmla="val -17584"/>
+            <a:gd name="adj1" fmla="val -98642"/>
+            <a:gd name="adj2" fmla="val -36592"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -822,7 +708,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>結果は</a:t>
+            <a:t>動作記述部は</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -830,22 +716,22 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>バリデーションエラーとなる場合は</a:t>
+            <a:t>バリデーションエラーとなる場合は上段に</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>FALSE</a:t>
+            <a:t>X</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>入力成功する場合は</a:t>
+            <a:t>入力成功する場合は下段に</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>TRUE</a:t>
+            <a:t>X</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
@@ -859,16 +745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -883,7 +769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="7493000"/>
+          <a:off x="7797800" y="14655800"/>
           <a:ext cx="3606800" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1275,342 +1161,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F40C11F-733D-BE42-918E-29F427300B11}">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="5"/>
+    <col min="1" max="1" width="21.5703125" style="4" customWidth="1"/>
+    <col min="2" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" thickTop="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
-        <v>9</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" thickBot="1">
-      <c r="A24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" thickTop="1">
-      <c r="A25" s="17" t="s">
+      <c r="C24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="12" t="s">
+      <c r="F24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="F25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="9"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1621,342 +1528,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6A324-48B5-764D-BCB8-3066BCF7C2E1}">
-  <dimension ref="A2:K29"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.42578125" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="5"/>
+    <col min="1" max="1" width="21.5703125" style="4" customWidth="1"/>
+    <col min="2" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" thickTop="1">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6</v>
-      </c>
-      <c r="H20" s="3">
-        <v>7</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3">
-        <v>9</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" thickBot="1">
-      <c r="A24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" thickTop="1">
-      <c r="A25" s="17" t="s">
+      <c r="C24" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="12" t="s">
+      <c r="F24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
+      <c r="F25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="9"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
